--- a/Doc/导出配置/PokerCard.xlsx
+++ b/Doc/导出配置/PokerCard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\PokerGame\Doc\导出配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21090938-5241-4123-954E-84E2B61E2B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A122C5-D31F-46CD-A977-2BE72A1C481A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{293CF3EC-FE41-4698-85AA-566B56CDD3F1}"/>
   </bookViews>
@@ -30,7 +30,7 @@
     <author>毛俭铭</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{13E7570F-99CA-468C-9DEF-9BDB5EFFDDEC}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{358897D3-863A-4041-9139-3F98E84064B0}">
       <text>
         <r>
           <rPr>
@@ -38,12 +38,13 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>【字段名】：
 id
 【表头】：
-c|int
+c|string
 【数据类型】：
 字符
 【为空是否导出】：
@@ -51,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{A07A23C5-44A3-4622-A705-28E1BF7D60D2}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{E816FF01-875E-4920-8C1E-9D030292EADA}">
       <text>
         <r>
           <rPr>
@@ -59,6 +60,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">【字段名】：
@@ -80,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{201220A7-5BE6-42BB-B736-3705D70ACB75}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{5915B20A-DEC8-4586-9C13-A2E263F91941}">
       <text>
         <r>
           <rPr>
@@ -88,6 +90,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">【字段名】：
@@ -119,7 +122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{95758ADD-79E0-4871-9633-5D400F48FCBD}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{BB75FAB6-E484-4BD9-9791-F9C52EF42038}">
       <text>
         <r>
           <rPr>
@@ -127,6 +130,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>【字段名】：
@@ -140,7 +144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{95A00F25-49EE-4545-B9D1-6649C7219E2D}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{B0CD3649-BDC2-4C22-8BBF-7A39EF9C0F28}">
       <text>
         <r>
           <rPr>
@@ -148,6 +152,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>【字段名】：
@@ -582,6 +587,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1066,6 +1072,41 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="0" row="0">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+  <wetp:taskpane dockstate="right" visibility="0" width="0" row="0">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{D66194F2-CB4C-476E-ADD1-F4B104E2687B}">
+  <we:reference id="wa200003696" version="1.3.0.0" store="zh-CN" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="WA200003696" version="1.3.0.0" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
+<file path=xl/webextensions/webextension2.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{5B0C6004-8C4A-40B7-A5E2-012AF3D1D6BB}">
+  <we:reference id="wa200006007" version="1.2.3.0" store="zh-CN" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="WA200006007" version="1.2.3.0" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C11F57FF-6A1B-4390-8948-CC96ACA6CE63}">
   <dimension ref="A1:E55"/>
